--- a/ig/ch-epr-fhir/ValueSet-ChPdqmMoreAttributesRequested.xlsx
+++ b/ig/ch-epr-fhir/ValueSet-ChPdqmMoreAttributesRequested.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T13:39:01+00:00</t>
+    <t>2025-12-18T15:54:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
